--- a/1234班/学员信息.xlsx
+++ b/1234班/学员信息.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19425" windowHeight="8370"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_GoBack" localSheetId="0">Sheet1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -715,7 +715,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E11:E12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -818,7 +818,9 @@
       <c r="D5" s="3">
         <v>100022</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3">
+        <v>222</v>
+      </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
       </c>
